--- a/output/VERDE_30592680000140.xlsx
+++ b/output/VERDE_30592680000140.xlsx
@@ -691,10 +691,10 @@
         <v>44165</v>
       </c>
       <c r="B28">
-        <v>0.1737934000000001</v>
+        <v>0.1740345999999999</v>
       </c>
       <c r="C28">
-        <v>0.03636754048239665</v>
+        <v>0.03658050117101874</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_30592680000140.xlsx
+++ b/output/VERDE_30592680000140.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE AM V60 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,315 +383,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43373</v>
       </c>
       <c r="B2">
-        <v>-0.001618000000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43404</v>
       </c>
       <c r="B3">
-        <v>0.02953910000000004</v>
-      </c>
-      <c r="C3">
         <v>0.03120759388690897</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43434</v>
       </c>
       <c r="B4">
-        <v>0.03470820000000008</v>
-      </c>
-      <c r="C4">
         <v>0.005020790371147665</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43465</v>
       </c>
       <c r="B5">
-        <v>0.03375670000000008</v>
-      </c>
-      <c r="C5">
         <v>-0.0009195829316902548</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43496</v>
       </c>
       <c r="B6">
-        <v>0.06655389999999994</v>
-      </c>
-      <c r="C6">
         <v>0.03172622726411345</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43524</v>
       </c>
       <c r="B7">
-        <v>0.06767159999999994</v>
-      </c>
-      <c r="C7">
         <v>0.001047954538443863</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43555</v>
       </c>
       <c r="B8">
-        <v>0.07191170000000002</v>
-      </c>
-      <c r="C8">
         <v>0.003971352239771075</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43585</v>
       </c>
       <c r="B9">
-        <v>0.08016899999999993</v>
-      </c>
-      <c r="C9">
         <v>0.007703339743376114</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43616</v>
       </c>
       <c r="B10">
-        <v>0.0936903</v>
-      </c>
-      <c r="C10">
         <v>0.01251776342405675</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43646</v>
       </c>
       <c r="B11">
-        <v>0.1096653000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01460651155084758</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43677</v>
       </c>
       <c r="B12">
-        <v>0.1140147</v>
-      </c>
-      <c r="C12">
         <v>0.003919560249383336</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43708</v>
       </c>
       <c r="B13">
-        <v>0.1154786999999999</v>
-      </c>
-      <c r="C13">
         <v>0.001314165782551946</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43738</v>
       </c>
       <c r="B14">
-        <v>0.1297596999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01280257525311779</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43769</v>
       </c>
       <c r="B15">
-        <v>0.1394438</v>
-      </c>
-      <c r="C15">
         <v>0.008571822839848142</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43799</v>
       </c>
       <c r="B16">
-        <v>0.1391138000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.0002896149858377939</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43830</v>
       </c>
       <c r="B17">
-        <v>0.1606243999999999</v>
-      </c>
-      <c r="C17">
         <v>0.01888362690365075</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43861</v>
       </c>
       <c r="B18">
-        <v>0.1579245</v>
-      </c>
-      <c r="C18">
         <v>-0.002326247836940021</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43890</v>
       </c>
       <c r="B19">
-        <v>0.1244155</v>
-      </c>
-      <c r="C19">
         <v>-0.02893884704918159</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43921</v>
       </c>
       <c r="B20">
-        <v>-0.004849499999999951</v>
-      </c>
-      <c r="C20">
         <v>-0.1149619513427198</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43951</v>
       </c>
       <c r="B21">
-        <v>0.08003270000000007</v>
-      </c>
-      <c r="C21">
         <v>0.08529584218668429</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43982</v>
       </c>
       <c r="B22">
-        <v>0.1067197</v>
-      </c>
-      <c r="C22">
         <v>0.02470943703834139</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44012</v>
       </c>
       <c r="B23">
-        <v>0.1163002</v>
-      </c>
-      <c r="C23">
         <v>0.008656663471337867</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44043</v>
       </c>
       <c r="B24">
-        <v>0.1385605000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01994114128081326</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44074</v>
       </c>
       <c r="B25">
-        <v>0.1531583000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01282127739369132</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44104</v>
       </c>
       <c r="B26">
-        <v>0.1386707</v>
-      </c>
-      <c r="C26">
         <v>-0.0125634095509698</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44135</v>
       </c>
       <c r="B27">
-        <v>0.1326034</v>
-      </c>
-      <c r="C27">
         <v>-0.005328406184509693</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44165</v>
       </c>
       <c r="B28">
-        <v>0.1740345999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.03658050117101874</v>
+        <v>0.02980142916752682</v>
       </c>
     </row>
   </sheetData>
